--- a/blocks/bl_1s20/bl_1s20.xlsx
+++ b/blocks/bl_1s20/bl_1s20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Foretellix\Files\workspace\AV_ValidationVerification\blocks\bl_1s20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC00FD-1D77-47F4-AB7C-BAB4A068D2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1BD1B5-3607-48E8-AD80-A8C969028632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,21 +58,12 @@
     <t>npc_dist_gt_dut_end</t>
   </si>
   <si>
-    <t>/pub/home/user3/Desktop/jmt_temporary/workshop_config.sdl</t>
-  </si>
-  <si>
-    <t>/pub/home/user3/Desktop/jmt_temporary</t>
-  </si>
-  <si>
     <t>[0..10]kph</t>
   </si>
   <si>
     <t>*bl_1s20</t>
   </si>
   <si>
-    <t>template /pub/home/user3/Desktop/jmt_temporary/blocks/bl_1s20/bl_1s20.tsdl</t>
-  </si>
-  <si>
     <t>npc_dist_lt_dut_start</t>
   </si>
   <si>
@@ -80,6 +71,15 @@
   </si>
   <si>
     <t>[-15..15]m</t>
+  </si>
+  <si>
+    <t>template /pub/home/user6/jmt_workspace/blocks/bl_1s20/bl_1s20.tsdl</t>
+  </si>
+  <si>
+    <t>/pub/home/user6/jmt_workspace</t>
+  </si>
+  <si>
+    <t>/pub/home/user6/jmt_workspace/workshop_config.sdl</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,10 +942,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -994,22 +994,22 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
